--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-214_アクター一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-214_アクター一覧(サンプル＆ガイド).xlsx
@@ -528,16 +528,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -560,6 +550,9 @@
       <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1104,6 +1097,33 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,39 +1142,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1168,30 +1185,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2506,9 +2499,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="20"/>
       <c r="J31" s="25"/>
-      <c r="R31" s="26" t="s">
-        <v>45</v>
-      </c>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="20"/>
@@ -2548,20 +2539,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3036,7 +3031,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3107,171 +3102,171 @@
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="40" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="42"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="36"/>
     </row>
     <row r="14" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="48"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="42"/>
     </row>
     <row r="15" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" ref="B15:B16" si="0">B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="34" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="39"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="48"/>
     </row>
     <row r="16" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="36"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="45"/>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
@@ -3300,18 +3295,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="I13:Y13"/>
     <mergeCell ref="Z13:AH13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:Y14"/>
     <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3343,777 +3338,719 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
     </row>
     <row r="4" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
     </row>
     <row r="5" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="50" t="s">
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
     </row>
     <row r="7" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
     </row>
     <row r="8" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="54" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49" t="s">
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49" t="s">
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
     </row>
     <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49" t="s">
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M5:Z5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="M7:Z7"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="M6:Z6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="M9:Z9"/>
-    <mergeCell ref="M8:Z8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="M11:Z11"/>
-    <mergeCell ref="M10:Z10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Z12"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Z13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Z14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:Z15"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:Z16"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Z17"/>
-    <mergeCell ref="AA17:AH17"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="M20:Z20"/>
@@ -4126,6 +4063,64 @@
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="M19:Z19"/>
     <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Z16"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Z17"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Z14"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:Z15"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Z12"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="M11:Z11"/>
+    <mergeCell ref="M10:Z10"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="M9:Z9"/>
+    <mergeCell ref="M8:Z8"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="M7:Z7"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="M6:Z6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M5:Z5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-214_アクター一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-214_アクター一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A6B64-ED5C-4BA5-8574-6C25B0ED46A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -528,17 +539,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>・階層数については、プロジェクトで個別に定義する。</t>
     <rPh sb="1" eb="4">
       <t>カイソウスウ</t>
@@ -550,15 +550,12 @@
       <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1097,6 +1094,24 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,23 +1139,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,30 +1182,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,6 +1263,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1287,7 +1287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1385,52 +1391,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1451,7 +1411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1538,7 +1504,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1629,7 +1601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1716,7 +1694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1798,7 +1782,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1862,7 +1852,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -1907,7 +1903,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1971,7 +1973,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2016,7 +2024,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2080,7 +2094,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -2119,7 +2139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2161,7 +2181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2194,9 +2214,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2229,6 +2266,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2404,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2513,58 +2567,47 @@
       <c r="R32" s="29"/>
       <c r="S32" s="30"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="31"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="30"/>
       <c r="S37" s="32"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="31"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>46</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="33"/>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
-      <c r="R39" s="31" t="s">
-        <v>47</v>
-      </c>
+      <c r="R39" s="31"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3027,17 +3070,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3102,171 +3142,171 @@
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="34" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="36"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="42"/>
     </row>
     <row r="14" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="42"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="48"/>
     </row>
     <row r="15" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" ref="B15:B16" si="0">B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="43" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="48"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="39"/>
     </row>
     <row r="16" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="45"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="36"/>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
@@ -3295,18 +3335,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:Y15"/>
     <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:Y16"/>
     <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3322,7 +3362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3338,719 +3378,777 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50" t="s">
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
     </row>
     <row r="4" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
     </row>
     <row r="5" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
     </row>
     <row r="6" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
     </row>
     <row r="7" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
     </row>
     <row r="8" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="62" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="63"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="55"/>
     </row>
     <row r="9" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58" t="s">
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58" t="s">
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
     </row>
     <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58" t="s">
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:Z4"/>
+    <mergeCell ref="AA3:AH4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M5:Z5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AA7:AH7"/>
+    <mergeCell ref="M7:Z7"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="M6:Z6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="M9:Z9"/>
+    <mergeCell ref="M8:Z8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="AA10:AH10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="M11:Z11"/>
+    <mergeCell ref="M10:Z10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Z12"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Z14"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:Z15"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:Z16"/>
+    <mergeCell ref="AA16:AH16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:Z17"/>
+    <mergeCell ref="AA17:AH17"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="M20:Z20"/>
@@ -4063,64 +4161,6 @@
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="M19:Z19"/>
     <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:Z16"/>
-    <mergeCell ref="AA16:AH16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:Z17"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Z14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:Z15"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Z12"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Z13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="AA10:AH10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="M11:Z11"/>
-    <mergeCell ref="M10:Z10"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AA8:AH8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="AA9:AH9"/>
-    <mergeCell ref="M9:Z9"/>
-    <mergeCell ref="M8:Z8"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AA7:AH7"/>
-    <mergeCell ref="M7:Z7"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="M6:Z6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:Z4"/>
-    <mergeCell ref="AA3:AH4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M5:Z5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
